--- a/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-3.916176669145177</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.977586009031584</v>
+        <v>-4.977586009031581</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.03505808880275575</v>
@@ -649,7 +649,7 @@
         <v>-0.1310974924557982</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2162863616952021</v>
+        <v>-0.2162863616952019</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.930678647119532</v>
+        <v>-7.122689174921537</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.765667621809764</v>
+        <v>-5.845220624295959</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-9.256050805337255</v>
+        <v>-9.760907157227591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.627610590070624</v>
+        <v>-9.869913232324912</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1727206415641922</v>
+        <v>-0.1747520885632351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1916088660574635</v>
+        <v>-0.1913523957532137</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2845563488720022</v>
+        <v>-0.2957322375486293</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.360345891209829</v>
+        <v>-0.3764414157397505</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.705313008455482</v>
+        <v>4.491013443555436</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.578219540213524</v>
+        <v>4.360009915309185</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.009969419657769</v>
+        <v>1.209505344551298</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.4674560345078872</v>
+        <v>-0.7178389175745039</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1389001508777721</v>
+        <v>0.1324379676750066</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1805695668838942</v>
+        <v>0.1781220648994763</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05097453409809088</v>
+        <v>0.04495716000463178</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.01829654592158399</v>
+        <v>-0.03473919003246741</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.3514772719865278</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.003856308742407</v>
+        <v>1.003856308742396</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09394172464321718</v>
@@ -749,7 +749,7 @@
         <v>0.01342530458451108</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.06058644614608007</v>
+        <v>0.06058644614607939</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.203741520757988</v>
+        <v>-1.971737460388324</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.043801054566402</v>
+        <v>-6.056060371806679</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.041011119661191</v>
+        <v>-3.93199876694068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.619386702794262</v>
+        <v>-2.555203486820568</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06655347702036586</v>
+        <v>-0.06501355559958817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1790888633105311</v>
+        <v>-0.1755062758999578</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1439502073513194</v>
+        <v>-0.137396921057753</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1373886905484802</v>
+        <v>-0.135341214866396</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.641552881217346</v>
+        <v>7.409752682823882</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.713618441344579</v>
+        <v>2.882043279851724</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.815069520152234</v>
+        <v>4.649415128045375</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.255316504331452</v>
+        <v>4.191328148610586</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2802252757786213</v>
+        <v>0.2649204185758149</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09082018394967627</v>
+        <v>0.09669976075452638</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2015184851894884</v>
+        <v>0.1952690495824075</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3001291541621842</v>
+        <v>0.289130612862227</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.37549707367059</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.227471275139477</v>
+        <v>-1.227471275139475</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.08458848646043876</v>
@@ -849,7 +849,7 @@
         <v>-0.04128067308195623</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.05140049382308846</v>
+        <v>-0.05140049382308835</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.644346492320601</v>
+        <v>-8.659222131495369</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.537429317830871</v>
+        <v>-6.059772134340721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.059749056472138</v>
+        <v>-7.462113758646598</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.921726519201892</v>
+        <v>-5.8478703610592</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2240839148900283</v>
+        <v>-0.2244626386635332</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1675852282106677</v>
+        <v>-0.1798245795303726</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.191742307947964</v>
+        <v>-0.2001245163624126</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2147274275365372</v>
+        <v>-0.2168558267087813</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.609858886435901</v>
+        <v>2.467852258511959</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.672677702793644</v>
+        <v>5.078271748503711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.382637680669658</v>
+        <v>4.223193087823784</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.67580667682292</v>
+        <v>3.61635744281315</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08326246506337295</v>
+        <v>0.07727484997493334</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1669032175462166</v>
+        <v>0.1900054383556208</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1443678868536392</v>
+        <v>0.1385456452135509</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1727896467252352</v>
+        <v>0.1759238846407243</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.781961194925171</v>
+        <v>-3.977161486869135</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.423879286984029</v>
+        <v>-5.541938049672631</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.7488074494139</v>
+        <v>-5.235507257227442</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.612863982798104</v>
+        <v>-2.617417130344393</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1249165895449589</v>
+        <v>-0.1344102362351567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1736756618579389</v>
+        <v>-0.1786504430929617</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1869028596387093</v>
+        <v>-0.203208505937344</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.149079659279587</v>
+        <v>-0.1571286268527478</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.257938612714675</v>
+        <v>5.368641298680062</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.487735287577603</v>
+        <v>3.065341876482523</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.571745484092961</v>
+        <v>3.253406716565267</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.981028055046888</v>
+        <v>3.80961191659004</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2002731254871549</v>
+        <v>0.2091410048634968</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1298912913335985</v>
+        <v>0.1123403499555083</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1600657399682945</v>
+        <v>0.1499139687425878</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3000091146959709</v>
+        <v>0.2884069408821961</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.455200068826193</v>
+        <v>-2.518116135607582</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.510096056312682</v>
+        <v>-3.253878590191951</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.646289708293544</v>
+        <v>-3.595102304708115</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.781248586850698</v>
+        <v>-2.692431892547195</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.07389770873298646</v>
+        <v>-0.07489612922722605</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1120170615302462</v>
+        <v>-0.1044930367898966</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1264333585983227</v>
+        <v>-0.1237110630122797</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1352605265070166</v>
+        <v>-0.1341989116682828</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.697841898796507</v>
+        <v>2.868631519281818</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.357871714317097</v>
+        <v>1.350446549017565</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.163419546347709</v>
+        <v>1.273836460666417</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.021378246823736</v>
+        <v>1.118125045814277</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0891449087951158</v>
+        <v>0.09677956237575865</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04649652537681277</v>
+        <v>0.04653359991240334</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04378118002787219</v>
+        <v>0.04972027175170368</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.057917975014107</v>
+        <v>0.06251783230410818</v>
       </c>
     </row>
     <row r="19">
